--- a/data/outputs/能源化工元源数据文件/10（2）BioResources.xlsx
+++ b/data/outputs/能源化工元源数据文件/10（2）BioResources.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ155"/>
+  <dimension ref="A1:BR155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -921,6 +926,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1126,6 +1132,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1319,6 +1326,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1524,6 +1532,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1717,6 +1726,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1922,6 +1932,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2123,6 +2134,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2324,6 +2336,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2517,6 +2530,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2718,6 +2732,7 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2911,6 +2926,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3112,6 +3128,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3321,6 +3338,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3514,6 +3532,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3715,6 +3734,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3916,6 +3936,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4125,6 +4146,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4334,6 +4356,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4543,6 +4566,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4748,6 +4772,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -4957,6 +4982,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5166,6 +5192,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5367,6 +5394,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5449,7 +5477,7 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>Gasparik, Miroslav/0000-0002-0537-0815; Gaff, Milan/0000-0003-2380-328X; </t>
+          <t>Gasparik, Miroslav/0000-0002-0537-0815; Gaff, Milan/0000-0003-2380-328X;</t>
         </is>
       </c>
       <c r="AB25" t="inlineStr">
@@ -5572,6 +5600,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5658,7 +5687,7 @@
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>Gaff, Milan/0000-0003-2380-328X; Gasparik, Miroslav/0000-0002-0537-0815; </t>
+          <t>Gaff, Milan/0000-0003-2380-328X; Gasparik, Miroslav/0000-0002-0537-0815;</t>
         </is>
       </c>
       <c r="AB26" t="inlineStr">
@@ -5781,6 +5810,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -5982,6 +6012,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6183,6 +6214,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6376,6 +6408,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6577,6 +6610,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6786,6 +6820,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -6995,6 +7030,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7204,6 +7240,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7401,6 +7438,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7602,6 +7640,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7803,6 +7842,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -7889,7 +7929,7 @@
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>Teo, Chee Loong/0000-0003-4157-4556; </t>
+          <t>Teo, Chee Loong/0000-0003-4157-4556;</t>
         </is>
       </c>
       <c r="AB37" t="inlineStr"/>
@@ -8004,6 +8044,7 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8197,6 +8238,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8394,6 +8436,7 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8595,6 +8638,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -8796,6 +8840,7 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -8997,6 +9042,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9206,6 +9252,7 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9407,6 +9454,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9608,6 +9656,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -9817,6 +9866,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10018,6 +10068,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10219,6 +10270,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10420,6 +10472,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10629,6 +10682,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -10838,6 +10892,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11039,6 +11094,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11248,6 +11304,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11449,6 +11506,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11535,7 +11593,7 @@
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>Gaff, Milan/0000-0003-2380-328X; Gasparik, Miroslav/0000-0002-0537-0815; </t>
+          <t>Gaff, Milan/0000-0003-2380-328X; Gasparik, Miroslav/0000-0002-0537-0815;</t>
         </is>
       </c>
       <c r="AB55" t="inlineStr">
@@ -11658,6 +11716,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -11859,6 +11918,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12060,6 +12120,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12269,6 +12330,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12470,6 +12532,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12671,6 +12734,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -12872,6 +12936,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13081,6 +13146,7 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13282,6 +13348,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13491,6 +13558,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13692,6 +13760,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -13893,6 +13962,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14094,6 +14164,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14295,6 +14366,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14496,6 +14568,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14697,6 +14770,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -14906,6 +14980,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15107,6 +15182,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15316,6 +15392,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15509,6 +15586,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15710,6 +15788,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -15911,6 +15990,7 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16120,6 +16200,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16325,6 +16406,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16530,6 +16612,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -16731,6 +16814,7 @@
         </is>
       </c>
       <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -16932,6 +17016,7 @@
         </is>
       </c>
       <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -17137,6 +17222,7 @@
         </is>
       </c>
       <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -17338,6 +17424,7 @@
         </is>
       </c>
       <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -17539,6 +17626,7 @@
         </is>
       </c>
       <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -17732,6 +17820,7 @@
         </is>
       </c>
       <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -17933,6 +18022,7 @@
         </is>
       </c>
       <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -18142,6 +18232,7 @@
         </is>
       </c>
       <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -18343,6 +18434,7 @@
         </is>
       </c>
       <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -18552,6 +18644,7 @@
         </is>
       </c>
       <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -18753,6 +18846,7 @@
         </is>
       </c>
       <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -18962,6 +19056,7 @@
         </is>
       </c>
       <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -19163,6 +19258,7 @@
         </is>
       </c>
       <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -19364,6 +19460,7 @@
         </is>
       </c>
       <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -19573,6 +19670,7 @@
         </is>
       </c>
       <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -19782,6 +19880,7 @@
         </is>
       </c>
       <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -19991,6 +20090,7 @@
         </is>
       </c>
       <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -20192,6 +20292,7 @@
         </is>
       </c>
       <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -20393,6 +20494,7 @@
         </is>
       </c>
       <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -20594,6 +20696,7 @@
         </is>
       </c>
       <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -20795,6 +20898,7 @@
         </is>
       </c>
       <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -20996,6 +21100,7 @@
         </is>
       </c>
       <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -21205,6 +21310,7 @@
         </is>
       </c>
       <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -21406,6 +21512,7 @@
         </is>
       </c>
       <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -21603,6 +21710,7 @@
         </is>
       </c>
       <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -21800,6 +21908,7 @@
         </is>
       </c>
       <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -22009,6 +22118,7 @@
         </is>
       </c>
       <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -22214,6 +22324,7 @@
         </is>
       </c>
       <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -22419,6 +22530,7 @@
         </is>
       </c>
       <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -22612,6 +22724,7 @@
         </is>
       </c>
       <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -22813,6 +22926,7 @@
         </is>
       </c>
       <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -23022,6 +23136,7 @@
         </is>
       </c>
       <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -23231,6 +23346,7 @@
         </is>
       </c>
       <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -23440,6 +23556,7 @@
         </is>
       </c>
       <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -23641,6 +23758,7 @@
         </is>
       </c>
       <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -23838,6 +23956,7 @@
         </is>
       </c>
       <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -24039,6 +24158,7 @@
         </is>
       </c>
       <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -24240,6 +24360,7 @@
         </is>
       </c>
       <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -24445,6 +24566,7 @@
         </is>
       </c>
       <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -24650,6 +24772,7 @@
         </is>
       </c>
       <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -24863,6 +24986,7 @@
         </is>
       </c>
       <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -25064,6 +25188,7 @@
         </is>
       </c>
       <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -25150,7 +25275,7 @@
       </c>
       <c r="AA122" t="inlineStr">
         <is>
-          <t>Gasparik, Miroslav/0000-0002-0537-0815; Boruvka, Vlastimil/0000-0002-2559-5712; </t>
+          <t>Gasparik, Miroslav/0000-0002-0537-0815; Boruvka, Vlastimil/0000-0002-2559-5712;</t>
         </is>
       </c>
       <c r="AB122" t="inlineStr">
@@ -25273,6 +25398,7 @@
         </is>
       </c>
       <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -25482,6 +25608,7 @@
         </is>
       </c>
       <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -25683,6 +25810,7 @@
         </is>
       </c>
       <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -25884,6 +26012,7 @@
         </is>
       </c>
       <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -26089,6 +26218,7 @@
         </is>
       </c>
       <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -26290,6 +26420,7 @@
         </is>
       </c>
       <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -26483,6 +26614,7 @@
         </is>
       </c>
       <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -26684,6 +26816,7 @@
         </is>
       </c>
       <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -26893,6 +27026,7 @@
         </is>
       </c>
       <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -27102,6 +27236,7 @@
         </is>
       </c>
       <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -27307,6 +27442,7 @@
         </is>
       </c>
       <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -27508,6 +27644,7 @@
         </is>
       </c>
       <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -27713,6 +27850,7 @@
         </is>
       </c>
       <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -27918,6 +28056,7 @@
         </is>
       </c>
       <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -28127,6 +28266,7 @@
         </is>
       </c>
       <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -28332,6 +28472,7 @@
         </is>
       </c>
       <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -28541,6 +28682,7 @@
         </is>
       </c>
       <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -28750,6 +28892,7 @@
         </is>
       </c>
       <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -28951,6 +29094,7 @@
         </is>
       </c>
       <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -29160,6 +29304,7 @@
         </is>
       </c>
       <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -29369,6 +29514,7 @@
         </is>
       </c>
       <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -29455,7 +29601,7 @@
       </c>
       <c r="AA143" t="inlineStr">
         <is>
-          <t>Schneider, Jose F/0000-0001-5992-2788; Castro, Gustavo/0000-0002-1218-2425; Pedrosa, Valber/0000-0002-9950-7711; </t>
+          <t>Schneider, Jose F/0000-0001-5992-2788; Castro, Gustavo/0000-0002-1218-2425; Pedrosa, Valber/0000-0002-9950-7711;</t>
         </is>
       </c>
       <c r="AB143" t="inlineStr">
@@ -29578,6 +29724,7 @@
         </is>
       </c>
       <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -29779,6 +29926,7 @@
         </is>
       </c>
       <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -29980,6 +30128,7 @@
         </is>
       </c>
       <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -30185,6 +30334,7 @@
         </is>
       </c>
       <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -30398,6 +30548,7 @@
         </is>
       </c>
       <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -30603,6 +30754,7 @@
         </is>
       </c>
       <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -30808,6 +30960,7 @@
         </is>
       </c>
       <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -31021,6 +31174,7 @@
         </is>
       </c>
       <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -31234,6 +31388,7 @@
         </is>
       </c>
       <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -31439,6 +31594,7 @@
         </is>
       </c>
       <c r="BQ152" t="inlineStr"/>
+      <c r="BR152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -31644,6 +31800,7 @@
         </is>
       </c>
       <c r="BQ153" t="inlineStr"/>
+      <c r="BR153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -31857,6 +32014,7 @@
         </is>
       </c>
       <c r="BQ154" t="inlineStr"/>
+      <c r="BR154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -32066,6 +32224,7 @@
         </is>
       </c>
       <c r="BQ155" t="inlineStr"/>
+      <c r="BR155" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
